--- a/biology/Botanique/Cotoneaster_moupinensis/Cotoneaster_moupinensis.xlsx
+++ b/biology/Botanique/Cotoneaster_moupinensis/Cotoneaster_moupinensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cotoneaster moupinensis, le Cotonéaster de Moupine, est une espèce de plantes à fleurs de la famille des Rosacées et du genre Cotoneaster. C’est un arbuste caducifolié originaire de Chine, utilisée comme plante ornementale.
 </t>
@@ -511,12 +523,14 @@
           <t>Étymologie et histoire de la nomenclature</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de genre Cotoneaster est composé du latin cotoneum « coing » (du grec χυδώνια khudônia) et suffixe -aster « comme » indiquant une ressemblance imparfaite, parce que les fruits du cotonéaster sont légèrement toxiques et ne sont pas très bons[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de genre Cotoneaster est composé du latin cotoneum « coing » (du grec χυδώνια khudônia) et suffixe -aster « comme » indiquant une ressemblance imparfaite, parce que les fruits du cotonéaster sont légèrement toxiques et ne sont pas très bons.
 L’épithète spécifique moupin.ensis dérive du toponyme de Moupin[n 1] (transcription phonétique du chinois Muping 穆坪), désignant actuellement le district de Baoxing (dans le Sud-Ouest de la province du Sichuan en Chine) et du suffixe latin -ensis  « qui vit dans, originaire de », en référence au lieu de sa découverte. 
-Le missionnaire botaniste Armand David découvrit cette nouvelle espèce de cotonéaster en juin 1869 à Moupin au Tibet oriental. De cette région de montagne à la flore et la faune encore préservées, le père David a envoyé au Muséum 676 spécimens de nouvelles espèces de plantes, 441 d'oiseaux, 145 de mammifères[3] dont le Panda géant. 
-Le botaniste Adrien Franchet du Muséum en a donné une description dans Plantae Daviddianae ex Sinarum Imperio[4].
+Le missionnaire botaniste Armand David découvrit cette nouvelle espèce de cotonéaster en juin 1869 à Moupin au Tibet oriental. De cette région de montagne à la flore et la faune encore préservées, le père David a envoyé au Muséum 676 spécimens de nouvelles espèces de plantes, 441 d'oiseaux, 145 de mammifères dont le Panda géant. 
+Le botaniste Adrien Franchet du Muséum en a donné une description dans Plantae Daviddianae ex Sinarum Imperio.
 </t>
         </is>
       </c>
@@ -545,13 +559,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cotoneaster moupinensis est un arbuste à feuilles caduques, pouvant atteindre 5 m de hauteur[5]. Les rameaux noir grisâtre sont élancées et souvent en surplomb, à lenticelles bien visibles. 
-La feuille simple, portée par un pétiole pubescent de 2-4 (-8) cm, possède un limbe elliptique-ovale ou rhombique-ovale, de 4–12 cm de long sur 2–4,5 cm[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cotoneaster moupinensis est un arbuste à feuilles caduques, pouvant atteindre 5 m de hauteur. Les rameaux noir grisâtre sont élancées et souvent en surplomb, à lenticelles bien visibles. 
+La feuille simple, portée par un pétiole pubescent de 2-4 (-8) cm, possède un limbe elliptique-ovale ou rhombique-ovale, de 4–12 cm de long sur 2–4,5 cm.
 L’inflorescence est un corymbe à 9–25 fleurs, avec un rachis et des pédicelles pubescents, des bractées lancéolées, et peu pubescentes.
 La fleur possède 5 sépales triangulaires, apex aigu, 5 pétales dressés, roses, ovales ou suborbiculaires, et environ 20 étamines plus courtes que les pétales.
-Le fruit est noir[n 2], subglobuleux ou obovoïde, 6–8 mm de diamètre[5].
+Le fruit est noir[n 2], subglobuleux ou obovoïde, 6–8 mm de diamètre.
 La floraison a lieu en juin-juillet, la fructification de septembre à octobre. 
 Il y a eu beaucoup de confusion dans les jardins entre lui et Cotoneaster bullatus.
 </t>
@@ -582,10 +598,12 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cotoneaster moupinensis est originaire de Chine[n 3].
-L’espèce, cultivée en Europe, s’est échappée des jardins et s’est naturalisée en Allemagne et Grande-Bretagne[6]. Elle se rencontre aussi en Norvège, Pologne, Estonie[7].
+L’espèce, cultivée en Europe, s’est échappée des jardins et s’est naturalisée en Allemagne et Grande-Bretagne. Elle se rencontre aussi en Norvège, Pologne, Estonie.
 L’espèce pousse aux lisières des bois, dans les forêts de conifères et sur le bord des cours d’eau, entre 1 300 m et 3 200 m d’altitude.
 </t>
         </is>
@@ -615,7 +633,9 @@
           <t>Horticulture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cotoneaster moupinensis a été introduit en France en 1907. Il est cultivé comme arbuste ornemental.
 </t>
